--- a/Dimagi/ESPEN Collect forms/oncho_1_community.xlsx
+++ b/Dimagi/ESPEN Collect forms/oncho_1_community.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\Dimagi\ESPEN Collect forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD9CC69-4402-4909-8166-FC0E70C8DF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E781276-59DA-4E7E-B9F1-31AA36A203CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,9 +124,6 @@
     <t>oncho_1_community</t>
   </si>
   <si>
-    <t>1. Community Registration Form</t>
-  </si>
-  <si>
     <t>r_State</t>
   </si>
   <si>
@@ -215,6 +212,9 @@
   </si>
   <si>
     <t>${r_CommunityAccessibility} = 'No'</t>
+  </si>
+  <si>
+    <t>1. Community Registration Form V2</t>
   </si>
 </sst>
 </file>
@@ -735,7 +735,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -801,13 +801,13 @@
         <v>22</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8" t="s">
@@ -826,13 +826,13 @@
     </row>
     <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="8"/>
@@ -849,13 +849,13 @@
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="8"/>
@@ -872,13 +872,13 @@
     </row>
     <row r="5" spans="1:13" s="11" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="8"/>
@@ -895,13 +895,13 @@
     </row>
     <row r="6" spans="1:13" s="11" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="8"/>
@@ -918,13 +918,13 @@
     </row>
     <row r="7" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="8"/>
@@ -941,13 +941,13 @@
     </row>
     <row r="8" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="8"/>
@@ -967,17 +967,17 @@
         <v>11</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="10"/>
       <c r="H9" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8" t="s">
@@ -992,13 +992,13 @@
         <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -1017,7 +1017,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>23</v>
@@ -1038,7 +1038,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -1057,7 +1057,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -1109,26 +1109,26 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>27</v>
@@ -1148,7 +1148,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>28</v>

--- a/Dimagi/ESPEN Collect forms/oncho_1_community.xlsx
+++ b/Dimagi/ESPEN Collect forms/oncho_1_community.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\Dimagi\ESPEN Collect forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E781276-59DA-4E7E-B9F1-31AA36A203CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F55AEC4-AF91-4473-9F61-F3215B9C0936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
   <si>
     <t>type</t>
   </si>
@@ -121,9 +121,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>oncho_1_community</t>
-  </si>
-  <si>
     <t>r_State</t>
   </si>
   <si>
@@ -215,6 +212,15 @@
   </si>
   <si>
     <t>1. Community Registration Form V2</t>
+  </si>
+  <si>
+    <t>Site ID</t>
+  </si>
+  <si>
+    <t>r_site_id</t>
+  </si>
+  <si>
+    <t>oncho_1_community_v2</t>
   </si>
 </sst>
 </file>
@@ -729,13 +735,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -801,13 +807,13 @@
         <v>22</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8" t="s">
@@ -826,13 +832,13 @@
     </row>
     <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="8"/>
@@ -849,13 +855,13 @@
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="8"/>
@@ -872,13 +878,13 @@
     </row>
     <row r="5" spans="1:13" s="11" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="8"/>
@@ -893,19 +899,19 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="1:13" s="11" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="11" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="10"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -916,15 +922,15 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="11" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="8"/>
@@ -941,13 +947,13 @@
     </row>
     <row r="8" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="8"/>
@@ -959,51 +965,49 @@
         <v>9</v>
       </c>
       <c r="K8" s="8"/>
-      <c r="L8" s="13"/>
+      <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="L9" s="13"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>47</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D10" s="10"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8" t="s">
         <v>9</v>
@@ -1012,35 +1016,41 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
+        <v>36</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="14"/>
+        <v>53</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="D12" s="14"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
@@ -1054,10 +1064,10 @@
     </row>
     <row r="13" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -1070,6 +1080,25 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
+    </row>
+    <row r="14" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1109,26 +1138,26 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>27</v>
@@ -1147,7 +1176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1172,10 +1201,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>21</v>

--- a/Dimagi/ESPEN Collect forms/oncho_1_community.xlsx
+++ b/Dimagi/ESPEN Collect forms/oncho_1_community.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\Dimagi\ESPEN Collect forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F55AEC4-AF91-4473-9F61-F3215B9C0936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E98B85-A1FE-4642-B389-435C49F8FF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
   <si>
     <t>type</t>
   </si>
@@ -133,9 +133,6 @@
     <t>r_CommunityName</t>
   </si>
   <si>
-    <t>duplicate_confirmation</t>
-  </si>
-  <si>
     <t>r_Date</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
     <t>Enter the name of Community</t>
   </si>
   <si>
-    <t>The community you just entered detail on may have already been registered. Please exit the form and check the case list to confirm it has not already been registered. If you've already completed that check select 'Yes' to proceed.</t>
-  </si>
-  <si>
     <t>Enter today’s date</t>
   </si>
   <si>
@@ -187,9 +181,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>select_one yes</t>
-  </si>
-  <si>
     <t>yes_no</t>
   </si>
   <si>
@@ -211,16 +202,26 @@
     <t>${r_CommunityAccessibility} = 'No'</t>
   </si>
   <si>
-    <t>1. Community Registration Form V2</t>
-  </si>
-  <si>
-    <t>Site ID</t>
-  </si>
-  <si>
-    <t>r_site_id</t>
-  </si>
-  <si>
-    <t>oncho_1_community_v2</t>
+    <t>1. Community Registration Form V3</t>
+  </si>
+  <si>
+    <t>oncho_1_community_v3</t>
+  </si>
+  <si>
+    <t>.&lt;=date(today())</t>
+  </si>
+  <si>
+    <t>The date cannot be in the future</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>Community name: **${r_CommunityName}**
+Community accessibility: **${r_CommunityAccessibility}**</t>
   </si>
 </sst>
 </file>
@@ -280,7 +281,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,6 +298,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDEEAF6"/>
         <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -342,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -390,6 +409,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -735,13 +766,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -761,7 +792,7 @@
     <col min="13" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -802,7 +833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>22</v>
       </c>
@@ -810,10 +841,10 @@
         <v>29</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8" t="s">
@@ -830,15 +861,15 @@
       <c r="K2" s="8"/>
       <c r="M2" s="8"/>
     </row>
-    <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="8"/>
@@ -853,15 +884,15 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="8"/>
@@ -876,15 +907,15 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:13" s="11" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="11" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="8"/>
@@ -899,20 +930,24 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="1:13" s="11" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
+      <c r="F6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8" t="s">
@@ -922,12 +957,12 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:13" s="11" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>40</v>
@@ -942,15 +977,15 @@
         <v>9</v>
       </c>
       <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="L7" s="13"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>41</v>
@@ -959,7 +994,9 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="8"/>
+      <c r="H8" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8" t="s">
         <v>9</v>
@@ -968,17 +1005,19 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="10"/>
@@ -988,69 +1027,60 @@
         <v>9</v>
       </c>
       <c r="K9" s="8"/>
-      <c r="L9" s="13"/>
+      <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-    </row>
-    <row r="11" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-    </row>
-    <row r="12" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="1:14" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="22"/>
+    </row>
+    <row r="12" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>23</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
@@ -1062,12 +1092,12 @@
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -1080,25 +1110,6 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
-    </row>
-    <row r="14" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1138,26 +1149,26 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>27</v>
@@ -1176,7 +1187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1201,10 +1212,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>21</v>

--- a/Dimagi/ESPEN Collect forms/oncho_1_community.xlsx
+++ b/Dimagi/ESPEN Collect forms/oncho_1_community.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\Dimagi\ESPEN Collect forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E98B85-A1FE-4642-B389-435C49F8FF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C6607F-BB62-4264-B982-A05AE46FBE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
   <si>
     <t>type</t>
   </si>
@@ -200,12 +200,6 @@
   </si>
   <si>
     <t>${r_CommunityAccessibility} = 'No'</t>
-  </si>
-  <si>
-    <t>1. Community Registration Form V3</t>
-  </si>
-  <si>
-    <t>oncho_1_community_v3</t>
   </si>
   <si>
     <t>.&lt;=date(today())</t>
@@ -222,6 +216,12 @@
   <si>
     <t>Community name: **${r_CommunityName}**
 Community accessibility: **${r_CommunityAccessibility}**</t>
+  </si>
+  <si>
+    <t>oncho_1_community_v4</t>
+  </si>
+  <si>
+    <t>1. Community Registration Form V4</t>
   </si>
 </sst>
 </file>
@@ -772,7 +772,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD6"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -943,10 +943,10 @@
       <c r="D6" s="10"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -1023,9 +1023,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
@@ -1053,13 +1051,13 @@
     </row>
     <row r="11" spans="1:14" s="11" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>59</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>61</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="19"/>
@@ -1188,7 +1186,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1212,10 +1210,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>21</v>
